--- a/src/main/resources/131-mall-cloud-alibaba/mall-portal-content_structure.xlsx
+++ b/src/main/resources/131-mall-cloud-alibaba/mall-portal-content_structure.xlsx
@@ -310,13 +310,13 @@
     <t>com.mtcarpenter.mall.CommentGenerator</t>
   </si>
   <si>
-    <t>addFieldComment(org.mybatis.generator.api.dom.java.Field)</t>
+    <t>addFieldComment(org.mybatis.generator.api.dom.java.Field,org.mybatis.generator.api.IntrospectedTable,org.mybatis.generator.api.IntrospectedColumn)</t>
   </si>
   <si>
     <t>addJavaFileComment(org.mybatis.generator.api.dom.java.CompilationUnit)</t>
   </si>
   <si>
-    <t>addFieldJavaDoc(org.mybatis.generator.api.dom.java.Field)</t>
+    <t>addFieldJavaDoc(org.mybatis.generator.api.dom.java.Field,java.lang.String)</t>
   </si>
   <si>
     <t>addConfigurationProperties(java.util.Properties)</t>
